--- a/data/nzd0146/nzd0146.xlsx
+++ b/data/nzd0146/nzd0146.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I601"/>
+  <dimension ref="A1:I609"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18354,6 +18354,258 @@
       <c r="I601" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-12 22:11:48+00:00</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr"/>
+      <c r="C602" t="n">
+        <v>359.49</v>
+      </c>
+      <c r="D602" t="n">
+        <v>376.56</v>
+      </c>
+      <c r="E602" t="n">
+        <v>367.86</v>
+      </c>
+      <c r="F602" t="n">
+        <v>369.6154545454546</v>
+      </c>
+      <c r="G602" t="n">
+        <v>356.5654545454545</v>
+      </c>
+      <c r="H602" t="n">
+        <v>361.66</v>
+      </c>
+      <c r="I602" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr"/>
+      <c r="C603" t="n">
+        <v>372.14</v>
+      </c>
+      <c r="D603" t="n">
+        <v>384.21</v>
+      </c>
+      <c r="E603" t="n">
+        <v>375.89</v>
+      </c>
+      <c r="F603" t="n">
+        <v>372.1363636363636</v>
+      </c>
+      <c r="G603" t="n">
+        <v>365.7463636363637</v>
+      </c>
+      <c r="H603" t="n">
+        <v>359.36</v>
+      </c>
+      <c r="I603" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B604" t="n">
+        <v>360.4657142857143</v>
+      </c>
+      <c r="C604" t="n">
+        <v>367.72</v>
+      </c>
+      <c r="D604" t="n">
+        <v>367.4</v>
+      </c>
+      <c r="E604" t="n">
+        <v>368.29</v>
+      </c>
+      <c r="F604" t="n">
+        <v>372.5154545454546</v>
+      </c>
+      <c r="G604" t="n">
+        <v>363.5254545454546</v>
+      </c>
+      <c r="H604" t="n">
+        <v>356.14</v>
+      </c>
+      <c r="I604" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B605" t="n">
+        <v>368.3357142857143</v>
+      </c>
+      <c r="C605" t="n">
+        <v>358.13</v>
+      </c>
+      <c r="D605" t="n">
+        <v>363.16</v>
+      </c>
+      <c r="E605" t="n">
+        <v>362.84</v>
+      </c>
+      <c r="F605" t="n">
+        <v>365.3872727272728</v>
+      </c>
+      <c r="G605" t="n">
+        <v>353.9972727272728</v>
+      </c>
+      <c r="H605" t="n">
+        <v>353.65</v>
+      </c>
+      <c r="I605" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B606" t="n">
+        <v>358.8342857142857</v>
+      </c>
+      <c r="C606" t="n">
+        <v>364.03</v>
+      </c>
+      <c r="D606" t="n">
+        <v>369.58</v>
+      </c>
+      <c r="E606" t="n">
+        <v>370.36</v>
+      </c>
+      <c r="F606" t="n">
+        <v>371.9927272727273</v>
+      </c>
+      <c r="G606" t="n">
+        <v>366.1327272727273</v>
+      </c>
+      <c r="H606" t="n">
+        <v>350.82</v>
+      </c>
+      <c r="I606" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B607" t="n">
+        <v>347.0385714285715</v>
+      </c>
+      <c r="C607" t="n">
+        <v>356.9299999999999</v>
+      </c>
+      <c r="D607" t="n">
+        <v>361.91</v>
+      </c>
+      <c r="E607" t="n">
+        <v>363.25</v>
+      </c>
+      <c r="F607" t="n">
+        <v>365.5209090909091</v>
+      </c>
+      <c r="G607" t="n">
+        <v>359.4409090909091</v>
+      </c>
+      <c r="H607" t="n">
+        <v>356.34</v>
+      </c>
+      <c r="I607" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:06:08+00:00</t>
+        </is>
+      </c>
+      <c r="B608" t="n">
+        <v>356.9457142857143</v>
+      </c>
+      <c r="C608" t="n">
+        <v>368.2</v>
+      </c>
+      <c r="D608" t="n">
+        <v>362.93</v>
+      </c>
+      <c r="E608" t="n">
+        <v>369.44</v>
+      </c>
+      <c r="F608" t="n">
+        <v>372.6463636363636</v>
+      </c>
+      <c r="G608" t="n">
+        <v>363.0363636363636</v>
+      </c>
+      <c r="H608" t="n">
+        <v>367.84</v>
+      </c>
+      <c r="I608" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr"/>
+      <c r="C609" t="inlineStr"/>
+      <c r="D609" t="inlineStr"/>
+      <c r="E609" t="inlineStr"/>
+      <c r="F609" t="n">
+        <v>410.6445454545454</v>
+      </c>
+      <c r="G609" t="n">
+        <v>401.4645454545454</v>
+      </c>
+      <c r="H609" t="n">
+        <v>379.09</v>
+      </c>
+      <c r="I609" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -18368,7 +18620,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B643"/>
+  <dimension ref="A1:B651"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24806,6 +25058,86 @@
       </c>
       <c r="B643" t="n">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>2024-12-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B644" t="n">
+        <v>-0.96</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B645" t="n">
+        <v>-0.68</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B646" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B647" t="n">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B648" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B649" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B650" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B651" t="n">
+        <v>-0.6899999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -24974,28 +25306,28 @@
         <v>0.08740000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1201082625682009</v>
+        <v>-0.1047719698203748</v>
       </c>
       <c r="J2" t="n">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="K2" t="n">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001411294328986124</v>
+        <v>0.001104265391303261</v>
       </c>
       <c r="M2" t="n">
-        <v>14.75983263971106</v>
+        <v>14.6810583662416</v>
       </c>
       <c r="N2" t="n">
-        <v>548.5691705951421</v>
+        <v>542.2380685007251</v>
       </c>
       <c r="O2" t="n">
-        <v>23.4215535478572</v>
+        <v>23.28600585117004</v>
       </c>
       <c r="P2" t="n">
-        <v>355.5941755536031</v>
+        <v>355.4483260669488</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -25051,28 +25383,28 @@
         <v>0.0532</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1068239298095223</v>
+        <v>0.09097715507548547</v>
       </c>
       <c r="J3" t="n">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="K3" t="n">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00319108815247493</v>
+        <v>0.002386037651425643</v>
       </c>
       <c r="M3" t="n">
-        <v>9.035007002334901</v>
+        <v>8.968843496689381</v>
       </c>
       <c r="N3" t="n">
-        <v>193.3341147738242</v>
+        <v>191.1932178981862</v>
       </c>
       <c r="O3" t="n">
-        <v>13.90446384345057</v>
+        <v>13.82726357231199</v>
       </c>
       <c r="P3" t="n">
-        <v>366.3131510290428</v>
+        <v>366.4622875758569</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -25128,28 +25460,28 @@
         <v>0.0536</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3134192212239807</v>
+        <v>0.3048190107375158</v>
       </c>
       <c r="J4" t="n">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="K4" t="n">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03776820547159487</v>
+        <v>0.03669784347318905</v>
       </c>
       <c r="M4" t="n">
-        <v>8.088899433312456</v>
+        <v>8.0665708258861</v>
       </c>
       <c r="N4" t="n">
-        <v>135.1628511742894</v>
+        <v>134.1235036105806</v>
       </c>
       <c r="O4" t="n">
-        <v>11.62595592518264</v>
+        <v>11.58117021766715</v>
       </c>
       <c r="P4" t="n">
-        <v>364.3000019670258</v>
+        <v>364.3816740458985</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -25205,28 +25537,28 @@
         <v>0.0552</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2750830539295618</v>
+        <v>0.261881227221549</v>
       </c>
       <c r="J5" t="n">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="K5" t="n">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03164410131926121</v>
+        <v>0.02948769097138948</v>
       </c>
       <c r="M5" t="n">
-        <v>7.950475786992241</v>
+        <v>7.903233456402937</v>
       </c>
       <c r="N5" t="n">
-        <v>123.7530776342468</v>
+        <v>122.5587354094757</v>
       </c>
       <c r="O5" t="n">
-        <v>11.12443605915585</v>
+        <v>11.07062488793996</v>
       </c>
       <c r="P5" t="n">
-        <v>366.0935799971664</v>
+        <v>366.2207591707219</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -25282,28 +25614,28 @@
         <v>0.0601</v>
       </c>
       <c r="I6" t="n">
-        <v>0.204252202795132</v>
+        <v>0.2095033321117591</v>
       </c>
       <c r="J6" t="n">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="K6" t="n">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02952910935990971</v>
+        <v>0.03079983280087351</v>
       </c>
       <c r="M6" t="n">
-        <v>6.233211453026407</v>
+        <v>6.26038833316125</v>
       </c>
       <c r="N6" t="n">
-        <v>73.83961423259068</v>
+        <v>75.75861774964933</v>
       </c>
       <c r="O6" t="n">
-        <v>8.592997976992121</v>
+        <v>8.703942655466506</v>
       </c>
       <c r="P6" t="n">
-        <v>368.2602725811537</v>
+        <v>368.2093077220337</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -25359,28 +25691,28 @@
         <v>0.057</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2330091803217372</v>
+        <v>-0.2234971939749244</v>
       </c>
       <c r="J7" t="n">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="K7" t="n">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03361251108654895</v>
+        <v>0.03086143866546531</v>
       </c>
       <c r="M7" t="n">
-        <v>6.413414718423535</v>
+        <v>6.438923159292229</v>
       </c>
       <c r="N7" t="n">
-        <v>84.09878124956457</v>
+        <v>85.99775224970074</v>
       </c>
       <c r="O7" t="n">
-        <v>9.170538765501433</v>
+        <v>9.273497304129696</v>
       </c>
       <c r="P7" t="n">
-        <v>369.1087668652632</v>
+        <v>369.0165519039645</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -25436,28 +25768,28 @@
         <v>0.0515</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2346684011341048</v>
+        <v>-0.2339623540513177</v>
       </c>
       <c r="J8" t="n">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="K8" t="n">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0281176029668414</v>
+        <v>0.0285318920518175</v>
       </c>
       <c r="M8" t="n">
-        <v>7.217774147253167</v>
+        <v>7.209135738323041</v>
       </c>
       <c r="N8" t="n">
-        <v>102.574069958028</v>
+        <v>102.1094081691156</v>
       </c>
       <c r="O8" t="n">
-        <v>10.12788575952691</v>
+        <v>10.10491999815514</v>
       </c>
       <c r="P8" t="n">
-        <v>366.3542114133912</v>
+        <v>366.3469754185885</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -25494,7 +25826,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I601"/>
+  <dimension ref="A1:I609"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49897,6 +50229,358 @@
         </is>
       </c>
     </row>
+    <row r="602">
+      <c r="A602" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-12 22:11:48+00:00</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr"/>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>-36.623793677548505,174.77512532873055</t>
+        </is>
+      </c>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>-36.624107735681214,174.7743109124453</t>
+        </is>
+      </c>
+      <c r="E602" t="inlineStr">
+        <is>
+          <t>-36.624294057347065,174.77345686324585</t>
+        </is>
+      </c>
+      <c r="F602" t="inlineStr">
+        <is>
+          <t>-36.62465108174592,174.7726962167866</t>
+        </is>
+      </c>
+      <c r="G602" t="inlineStr">
+        <is>
+          <t>-36.62500599846963,174.7719044825543</t>
+        </is>
+      </c>
+      <c r="H602" t="inlineStr">
+        <is>
+          <t>-36.62558212042106,174.77135725725228</t>
+        </is>
+      </c>
+      <c r="I602" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr"/>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>-36.62390625503438,174.7751476357978</t>
+        </is>
+      </c>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>-36.62417318440266,174.77433779845848</t>
+        </is>
+      </c>
+      <c r="E603" t="inlineStr">
+        <is>
+          <t>-36.62435902427326,174.77349641608274</t>
+        </is>
+      </c>
+      <c r="F603" t="inlineStr">
+        <is>
+          <t>-36.624669776205955,174.77271223327972</t>
+        </is>
+      </c>
+      <c r="G603" t="inlineStr">
+        <is>
+          <t>-36.625064909593505,174.7719765614169</t>
+        </is>
+      </c>
+      <c r="H603" t="inlineStr">
+        <is>
+          <t>-36.62556876292789,174.7713375927605</t>
+        </is>
+      </c>
+      <c r="I603" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>-36.623763237762304,174.77602244426242</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>-36.62386691966077,174.7751398415417</t>
+        </is>
+      </c>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>-36.62402936831275,174.77427871958224</t>
+        </is>
+      </c>
+      <c r="E604" t="inlineStr">
+        <is>
+          <t>-36.62429753627377,174.77345898126651</t>
+        </is>
+      </c>
+      <c r="F604" t="inlineStr">
+        <is>
+          <t>-36.62467258745343,174.77271464181905</t>
+        </is>
+      </c>
+      <c r="G604" t="inlineStr">
+        <is>
+          <t>-36.625050658694214,174.77195912515953</t>
+        </is>
+      </c>
+      <c r="H604" t="inlineStr">
+        <is>
+          <t>-36.625550062431635,174.77131006248337</t>
+        </is>
+      </c>
+      <c r="I604" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>-36.623834002578754,174.77602837333336</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>-36.62378157435586,174.77512293050466</t>
+        </is>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>-36.6239930934571,174.7742638181054</t>
+        </is>
+      </c>
+      <c r="E605" t="inlineStr">
+        <is>
+          <t>-36.62425344289711,174.77343213660035</t>
+        </is>
+      </c>
+      <c r="F605" t="inlineStr">
+        <is>
+          <t>-36.62461972655346,174.77266935322342</t>
+        </is>
+      </c>
+      <c r="G605" t="inlineStr">
+        <is>
+          <t>-36.62498951921326,174.7718843199057</t>
+        </is>
+      </c>
+      <c r="H605" t="inlineStr">
+        <is>
+          <t>-36.62553560148423,174.7712887735514</t>
+        </is>
+      </c>
+      <c r="I605" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>-36.62374856841734,174.7760212151846</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>-36.62383408085265,174.77513333457887</t>
+        </is>
+      </c>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t>-36.62404801906305,174.7742863811963</t>
+        </is>
+      </c>
+      <c r="E606" t="inlineStr">
+        <is>
+          <t>-36.6243142836645,174.77346917732226</t>
+        </is>
+      </c>
+      <c r="F606" t="inlineStr">
+        <is>
+          <t>-36.624668711033024,174.77271132069174</t>
+        </is>
+      </c>
+      <c r="G606" t="inlineStr">
+        <is>
+          <t>-36.62506738877138,174.77197959474108</t>
+        </is>
+      </c>
+      <c r="H606" t="inlineStr">
+        <is>
+          <t>-36.62551916594471,174.77126457770663</t>
+        </is>
+      </c>
+      <c r="I606" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>-36.62364250468415,174.77601232860337</t>
+        </is>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>-36.62377089506818,174.77512081442367</t>
+        </is>
+      </c>
+      <c r="D607" t="inlineStr">
+        <is>
+          <t>-36.62398239921853,174.7742594249841</t>
+        </is>
+      </c>
+      <c r="E607" t="inlineStr">
+        <is>
+          <t>-36.62425676001377,174.77343415610625</t>
+        </is>
+      </c>
+      <c r="F607" t="inlineStr">
+        <is>
+          <t>-36.624620717569115,174.7726702022757</t>
+        </is>
+      </c>
+      <c r="G607" t="inlineStr">
+        <is>
+          <t>-36.625024449399035,174.77192705759373</t>
+        </is>
+      </c>
+      <c r="H607" t="inlineStr">
+        <is>
+          <t>-36.62555122395334,174.77131177243808</t>
+        </is>
+      </c>
+      <c r="I607" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:06:08+00:00</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>-36.62373158691638,174.77601979238247</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>-36.62387119137561,174.77514068797632</t>
+        </is>
+      </c>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>-36.62399112571722,174.77426300977098</t>
+        </is>
+      </c>
+      <c r="E608" t="inlineStr">
+        <is>
+          <t>-36.62430684037986,174.77346464574134</t>
+        </is>
+      </c>
+      <c r="F608" t="inlineStr">
+        <is>
+          <t>-36.62467355824391,174.77271547354488</t>
+        </is>
+      </c>
+      <c r="G608" t="inlineStr">
+        <is>
+          <t>-36.62504752034599,174.77195528532968</t>
+        </is>
+      </c>
+      <c r="H608" t="inlineStr">
+        <is>
+          <t>-36.625618011407305,174.77141009492016</t>
+        </is>
+      </c>
+      <c r="I608" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr"/>
+      <c r="C609" t="inlineStr"/>
+      <c r="D609" t="inlineStr"/>
+      <c r="E609" t="inlineStr"/>
+      <c r="F609" t="inlineStr">
+        <is>
+          <t>-36.62495534338894,174.77295689441732</t>
+        </is>
+      </c>
+      <c r="G609" t="inlineStr">
+        <is>
+          <t>-36.62529410194195,174.77225698413824</t>
+        </is>
+      </c>
+      <c r="H609" t="inlineStr">
+        <is>
+          <t>-36.62568334687643,174.77150628012035</t>
+        </is>
+      </c>
+      <c r="I609" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0146/nzd0146.xlsx
+++ b/data/nzd0146/nzd0146.xlsx
@@ -25151,7 +25151,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:X8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25242,35 +25242,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -25329,27 +25334,28 @@
       <c r="P2" t="n">
         <v>355.4483260669488</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.77575089246278 -36.6205220304128, 174.77644398980962 -36.628794074298945)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.7757508924628</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-36.6205220304128</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.7764439898096</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-36.62879407429894</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.7760974411362</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-36.62465805235587</v>
       </c>
     </row>
@@ -25406,27 +25412,28 @@
       <c r="P3" t="n">
         <v>366.4622875758569</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.77449143235097 -36.62059442675695, 174.77611378442302 -36.628781780825534)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.774491432351</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-36.62059442675695</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.776113784423</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-36.62878178082553</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.775302608387</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-36.62468810379124</v>
       </c>
     </row>
@@ -25483,27 +25490,28 @@
       <c r="P4" t="n">
         <v>364.3816740458985</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.77298754674473 -36.620886108744905, 174.77622126850306 -36.628757814606494)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.7729875467447</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-36.62088610874491</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.7762212685031</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-36.62875781460649</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.7746044076239</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-36.6248219616757</v>
       </c>
     </row>
@@ -25560,27 +25568,28 @@
       <c r="P5" t="n">
         <v>366.2207591707219</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.7716449927784 -36.621317859606805, 174.77617773525844 -36.6287628879524)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.7716449927784</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-36.6213178596068</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.7761777352584</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-36.6287628879524</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.7739113640184</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-36.6250403737796</v>
       </c>
     </row>
@@ -25637,27 +25646,28 @@
       <c r="P6" t="n">
         <v>368.2093077220337</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.77034796489085 -36.621910075588104, 174.7761957523454 -36.628735466790836)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.7703479648908</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-36.6219100755881</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.7761957523454</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-36.62873546679084</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.7732718586181</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-36.62532277118947</v>
       </c>
     </row>
@@ -25714,27 +25724,28 @@
       <c r="P7" t="n">
         <v>369.0165519039645</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (174.76910518978553 -36.6227179890456, 174.77633311221447 -36.628625328986345)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>174.7691051897855</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-36.6227179890456</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>174.7763331122145</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-36.62862532898635</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>174.772719151</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-36.62567165901597</v>
       </c>
     </row>
@@ -25791,27 +25802,28 @@
       <c r="P8" t="n">
         <v>366.3469754185885</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (174.7682652270989 -36.623481699241616, 174.77613757918155 -36.62882900950516)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>174.7682652270989</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-36.62348169924162</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>174.7761375791816</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-36.62882900950516</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>174.7722014031402</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-36.62615535437339</v>
       </c>
     </row>

--- a/data/nzd0146/nzd0146.xlsx
+++ b/data/nzd0146/nzd0146.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I609"/>
+  <dimension ref="A1:I614"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18592,8 +18592,12 @@
       </c>
       <c r="B609" t="inlineStr"/>
       <c r="C609" t="inlineStr"/>
-      <c r="D609" t="inlineStr"/>
-      <c r="E609" t="inlineStr"/>
+      <c r="D609" t="n">
+        <v>422.17</v>
+      </c>
+      <c r="E609" t="n">
+        <v>416.64</v>
+      </c>
       <c r="F609" t="n">
         <v>410.6445454545454</v>
       </c>
@@ -18604,6 +18608,161 @@
         <v>379.09</v>
       </c>
       <c r="I609" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr"/>
+      <c r="C610" t="inlineStr"/>
+      <c r="D610" t="n">
+        <v>409.4500000000001</v>
+      </c>
+      <c r="E610" t="n">
+        <v>407.77</v>
+      </c>
+      <c r="F610" t="n">
+        <v>396.1363636363636</v>
+      </c>
+      <c r="G610" t="n">
+        <v>378.8063636363637</v>
+      </c>
+      <c r="H610" t="n">
+        <v>366.38</v>
+      </c>
+      <c r="I610" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B611" t="n">
+        <v>354.8828571428572</v>
+      </c>
+      <c r="C611" t="n">
+        <v>369.88</v>
+      </c>
+      <c r="D611" t="n">
+        <v>371.8</v>
+      </c>
+      <c r="E611" t="n">
+        <v>372.55</v>
+      </c>
+      <c r="F611" t="n">
+        <v>373.9518181818182</v>
+      </c>
+      <c r="G611" t="n">
+        <v>366.2818181818182</v>
+      </c>
+      <c r="H611" t="n">
+        <v>361.0100000000001</v>
+      </c>
+      <c r="I611" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr"/>
+      <c r="C612" t="inlineStr"/>
+      <c r="D612" t="inlineStr"/>
+      <c r="E612" t="n">
+        <v>405.55</v>
+      </c>
+      <c r="F612" t="n">
+        <v>397.0272727272728</v>
+      </c>
+      <c r="G612" t="n">
+        <v>369.8672727272727</v>
+      </c>
+      <c r="H612" t="n">
+        <v>375.61</v>
+      </c>
+      <c r="I612" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B613" t="n">
+        <v>343.5028571428572</v>
+      </c>
+      <c r="C613" t="n">
+        <v>357.61</v>
+      </c>
+      <c r="D613" t="n">
+        <v>364.94</v>
+      </c>
+      <c r="E613" t="n">
+        <v>362.15</v>
+      </c>
+      <c r="F613" t="n">
+        <v>367.7536363636364</v>
+      </c>
+      <c r="G613" t="n">
+        <v>358.5836363636364</v>
+      </c>
+      <c r="H613" t="n">
+        <v>355.58</v>
+      </c>
+      <c r="I613" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:36+00:00</t>
+        </is>
+      </c>
+      <c r="B614" t="n">
+        <v>345.6642857142857</v>
+      </c>
+      <c r="C614" t="n">
+        <v>357.62</v>
+      </c>
+      <c r="D614" t="n">
+        <v>362.89</v>
+      </c>
+      <c r="E614" t="n">
+        <v>364.7</v>
+      </c>
+      <c r="F614" t="n">
+        <v>368.1218181818182</v>
+      </c>
+      <c r="G614" t="n">
+        <v>359.0318181818182</v>
+      </c>
+      <c r="H614" t="n">
+        <v>346.64</v>
+      </c>
+      <c r="I614" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -18620,7 +18779,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B651"/>
+  <dimension ref="A1:B656"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25138,6 +25297,56 @@
       </c>
       <c r="B651" t="n">
         <v>-0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B652" t="n">
+        <v>-0.57</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B653" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B654" t="n">
+        <v>-0.84</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B655" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B656" t="n">
+        <v>0.12</v>
       </c>
     </row>
   </sheetData>
@@ -25311,28 +25520,28 @@
         <v>0.08740000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1047719698203748</v>
+        <v>-0.1123450666228303</v>
       </c>
       <c r="J2" t="n">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="K2" t="n">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001104265391303261</v>
+        <v>0.00129118337196199</v>
       </c>
       <c r="M2" t="n">
-        <v>14.6810583662416</v>
+        <v>14.60624884460065</v>
       </c>
       <c r="N2" t="n">
-        <v>542.2380685007251</v>
+        <v>538.2599292887564</v>
       </c>
       <c r="O2" t="n">
-        <v>23.28600585117004</v>
+        <v>23.20042950655777</v>
       </c>
       <c r="P2" t="n">
-        <v>355.4483260669488</v>
+        <v>355.5213728247176</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -25389,28 +25598,28 @@
         <v>0.0532</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09097715507548547</v>
+        <v>0.08171511715546512</v>
       </c>
       <c r="J3" t="n">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="K3" t="n">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002386037651425643</v>
+        <v>0.001948507948322686</v>
       </c>
       <c r="M3" t="n">
-        <v>8.968843496689381</v>
+        <v>8.949794530767857</v>
       </c>
       <c r="N3" t="n">
-        <v>191.1932178981862</v>
+        <v>190.4791271406789</v>
       </c>
       <c r="O3" t="n">
-        <v>13.82726357231199</v>
+        <v>13.80141757721571</v>
       </c>
       <c r="P3" t="n">
-        <v>366.4622875758569</v>
+        <v>366.5506020567879</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -25467,28 +25676,28 @@
         <v>0.0536</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3048190107375158</v>
+        <v>0.3340688730060121</v>
       </c>
       <c r="J4" t="n">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="K4" t="n">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03669784347318905</v>
+        <v>0.04214161378209713</v>
       </c>
       <c r="M4" t="n">
-        <v>8.0665708258861</v>
+        <v>8.251732931199623</v>
       </c>
       <c r="N4" t="n">
-        <v>134.1235036105806</v>
+        <v>141.2690222565967</v>
       </c>
       <c r="O4" t="n">
-        <v>11.58117021766715</v>
+        <v>11.88566456941288</v>
       </c>
       <c r="P4" t="n">
-        <v>364.3816740458985</v>
+        <v>364.104162547619</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25545,28 +25754,28 @@
         <v>0.0552</v>
       </c>
       <c r="I5" t="n">
-        <v>0.261881227221549</v>
+        <v>0.2970829203333381</v>
       </c>
       <c r="J5" t="n">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="K5" t="n">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02948769097138948</v>
+        <v>0.0360930802969528</v>
       </c>
       <c r="M5" t="n">
-        <v>7.903233456402937</v>
+        <v>8.108273308074933</v>
       </c>
       <c r="N5" t="n">
-        <v>122.5587354094757</v>
+        <v>129.7015279742319</v>
       </c>
       <c r="O5" t="n">
-        <v>11.07062488793996</v>
+        <v>11.38865786536025</v>
       </c>
       <c r="P5" t="n">
-        <v>366.2207591707219</v>
+        <v>365.8797980852017</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -25623,28 +25832,28 @@
         <v>0.0601</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2095033321117591</v>
+        <v>0.2231797782636654</v>
       </c>
       <c r="J6" t="n">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="K6" t="n">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03079983280087351</v>
+        <v>0.03453172849542496</v>
       </c>
       <c r="M6" t="n">
-        <v>6.26038833316125</v>
+        <v>6.323463529079027</v>
       </c>
       <c r="N6" t="n">
-        <v>75.75861774964933</v>
+        <v>77.25217664781491</v>
       </c>
       <c r="O6" t="n">
-        <v>8.703942655466506</v>
+        <v>8.789321739919123</v>
       </c>
       <c r="P6" t="n">
-        <v>368.2093077220337</v>
+        <v>368.0773569607452</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -25701,28 +25910,28 @@
         <v>0.057</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2234971939749244</v>
+        <v>-0.2174280156700133</v>
       </c>
       <c r="J7" t="n">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="K7" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03086143866546531</v>
+        <v>0.02962974194902512</v>
       </c>
       <c r="M7" t="n">
-        <v>6.438923159292229</v>
+        <v>6.442782386704678</v>
       </c>
       <c r="N7" t="n">
-        <v>85.99775224970074</v>
+        <v>85.80060660321229</v>
       </c>
       <c r="O7" t="n">
-        <v>9.273497304129696</v>
+        <v>9.262861685419484</v>
       </c>
       <c r="P7" t="n">
-        <v>369.0165519039645</v>
+        <v>368.9578577382602</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -25779,28 +25988,28 @@
         <v>0.0515</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2339623540513177</v>
+        <v>-0.2327575943299734</v>
       </c>
       <c r="J8" t="n">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="K8" t="n">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0285318920518175</v>
+        <v>0.02854575575782836</v>
       </c>
       <c r="M8" t="n">
-        <v>7.209135738323041</v>
+        <v>7.217946214609599</v>
       </c>
       <c r="N8" t="n">
-        <v>102.1094081691156</v>
+        <v>102.0501145359318</v>
       </c>
       <c r="O8" t="n">
-        <v>10.10491999815514</v>
+        <v>10.10198567292252</v>
       </c>
       <c r="P8" t="n">
-        <v>366.3469754185885</v>
+        <v>366.3354715533401</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -25838,7 +26047,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I609"/>
+  <dimension ref="A1:I614"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50570,8 +50779,16 @@
       </c>
       <c r="B609" t="inlineStr"/>
       <c r="C609" t="inlineStr"/>
-      <c r="D609" t="inlineStr"/>
-      <c r="E609" t="inlineStr"/>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>-36.62449794682907,174.77447121001933</t>
+        </is>
+      </c>
+      <c r="E609" t="inlineStr">
+        <is>
+          <t>-36.624688712979385,174.77369713669785</t>
+        </is>
+      </c>
       <c r="F609" t="inlineStr">
         <is>
           <t>-36.62495534338894,174.77295689441732</t>
@@ -50588,6 +50805,221 @@
         </is>
       </c>
       <c r="I609" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr"/>
+      <c r="C610" t="inlineStr"/>
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>-36.62438912234982,174.77442650506663</t>
+        </is>
+      </c>
+      <c r="E610" t="inlineStr">
+        <is>
+          <t>-36.624616950097696,174.7736534459507</t>
+        </is>
+      </c>
+      <c r="F610" t="inlineStr">
+        <is>
+          <t>-36.62484775435554,174.7728647166938</t>
+        </is>
+      </c>
+      <c r="G610" t="inlineStr">
+        <is>
+          <t>-36.625148711592225,174.77207909501934</t>
+        </is>
+      </c>
+      <c r="H610" t="inlineStr">
+        <is>
+          <t>-36.625609532309255,174.7713976122305</t>
+        </is>
+      </c>
+      <c r="I610" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>-36.623713038287384,174.77601823827877</t>
+        </is>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>-36.623886142377415,174.7751436504983</t>
+        </is>
+      </c>
+      <c r="D611" t="inlineStr">
+        <is>
+          <t>-36.624067012028284,174.77429418339443</t>
+        </is>
+      </c>
+      <c r="E611" t="inlineStr">
+        <is>
+          <t>-36.6243320019173,174.7734799644586</t>
+        </is>
+      </c>
+      <c r="F611" t="inlineStr">
+        <is>
+          <t>-36.62468323918198,174.77272376770102</t>
+        </is>
+      </c>
+      <c r="G611" t="inlineStr">
+        <is>
+          <t>-36.62506834544232,174.7719807652474</t>
+        </is>
+      </c>
+      <c r="H611" t="inlineStr">
+        <is>
+          <t>-36.625578345477685,174.77135169989523</t>
+        </is>
+      </c>
+      <c r="I611" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr"/>
+      <c r="C612" t="inlineStr"/>
+      <c r="D612" t="inlineStr"/>
+      <c r="E612" t="inlineStr">
+        <is>
+          <t>-36.624598989148,174.77364251096273</t>
+        </is>
+      </c>
+      <c r="F612" t="inlineStr">
+        <is>
+          <t>-36.62485436111597,174.77287037707663</t>
+        </is>
+      </c>
+      <c r="G612" t="inlineStr">
+        <is>
+          <t>-36.62509135220858,174.7720089145058</t>
+        </is>
+      </c>
+      <c r="H612" t="inlineStr">
+        <is>
+          <t>-36.62566313644682,174.77147652681452</t>
+        </is>
+      </c>
+      <c r="I612" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>-36.623610712538735,174.776009664895</t>
+        </is>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>-36.62377694666454,174.77512201353616</t>
+        </is>
+      </c>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>-36.624008322052454,174.77427007391228</t>
+        </is>
+      </c>
+      <c r="E613" t="inlineStr">
+        <is>
+          <t>-36.6242478604324,174.77342873792006</t>
+        </is>
+      </c>
+      <c r="F613" t="inlineStr">
+        <is>
+          <t>-36.62463727494518,174.77268438780573</t>
+        </is>
+      </c>
+      <c r="G613" t="inlineStr">
+        <is>
+          <t>-36.62501894853755,174.77192032719037</t>
+        </is>
+      </c>
+      <c r="H613" t="inlineStr">
+        <is>
+          <t>-36.625546810170725,174.7713052746104</t>
+        </is>
+      </c>
+      <c r="I613" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:36+00:00</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>-36.62363014749472,174.77601129325458</t>
+        </is>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>-36.623777035658605,174.77512203117016</t>
+        </is>
+      </c>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>-36.62399078350158,174.7742628691911</t>
+        </is>
+      </c>
+      <c r="E614" t="inlineStr">
+        <is>
+          <t>-36.624268491279686,174.7734412982627</t>
+        </is>
+      </c>
+      <c r="F614" t="inlineStr">
+        <is>
+          <t>-36.62464000529407,174.77268672703258</t>
+        </is>
+      </c>
+      <c r="G614" t="inlineStr">
+        <is>
+          <t>-36.62502182438566,174.77192384584228</t>
+        </is>
+      </c>
+      <c r="H614" t="inlineStr">
+        <is>
+          <t>-36.62549489012057,174.7712288396931</t>
+        </is>
+      </c>
+      <c r="I614" t="inlineStr">
         <is>
           <t>L8</t>
         </is>

--- a/data/nzd0146/nzd0146.xlsx
+++ b/data/nzd0146/nzd0146.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I614"/>
+  <dimension ref="A1:I617"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18765,6 +18765,103 @@
       <c r="I614" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:11:12+00:00</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr"/>
+      <c r="C615" t="n">
+        <v>394.81</v>
+      </c>
+      <c r="D615" t="n">
+        <v>378.54</v>
+      </c>
+      <c r="E615" t="n">
+        <v>376.89</v>
+      </c>
+      <c r="F615" t="n">
+        <v>376.930909090909</v>
+      </c>
+      <c r="G615" t="n">
+        <v>367.6309090909091</v>
+      </c>
+      <c r="H615" t="n">
+        <v>365.4</v>
+      </c>
+      <c r="I615" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B616" t="n">
+        <v>349.7157142857143</v>
+      </c>
+      <c r="C616" t="n">
+        <v>390.21</v>
+      </c>
+      <c r="D616" t="n">
+        <v>374.37</v>
+      </c>
+      <c r="E616" t="n">
+        <v>375.67</v>
+      </c>
+      <c r="F616" t="n">
+        <v>377.1118181818182</v>
+      </c>
+      <c r="G616" t="n">
+        <v>363.3518181818182</v>
+      </c>
+      <c r="H616" t="n">
+        <v>366.77</v>
+      </c>
+      <c r="I616" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B617" t="n">
+        <v>335.7642857142857</v>
+      </c>
+      <c r="C617" t="n">
+        <v>368.03</v>
+      </c>
+      <c r="D617" t="n">
+        <v>364.3</v>
+      </c>
+      <c r="E617" t="n">
+        <v>370.93</v>
+      </c>
+      <c r="F617" t="n">
+        <v>365.3772727272727</v>
+      </c>
+      <c r="G617" t="n">
+        <v>359.4072727272728</v>
+      </c>
+      <c r="H617" t="n">
+        <v>361.73</v>
+      </c>
+      <c r="I617" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -18779,7 +18876,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B656"/>
+  <dimension ref="A1:B659"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25347,6 +25444,36 @@
       </c>
       <c r="B656" t="n">
         <v>0.12</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B657" t="n">
+        <v>-0.49</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B658" t="n">
+        <v>-0.54</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B659" t="n">
+        <v>1.03</v>
       </c>
     </row>
   </sheetData>
@@ -25520,28 +25647,28 @@
         <v>0.08740000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1123450666228303</v>
+        <v>-0.1227910663167142</v>
       </c>
       <c r="J2" t="n">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="K2" t="n">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00129118337196199</v>
+        <v>0.00155803996511783</v>
       </c>
       <c r="M2" t="n">
-        <v>14.60624884460065</v>
+        <v>14.57186149876766</v>
       </c>
       <c r="N2" t="n">
-        <v>538.2599292887564</v>
+        <v>536.1669207006523</v>
       </c>
       <c r="O2" t="n">
-        <v>23.20042950655777</v>
+        <v>23.15527846303413</v>
       </c>
       <c r="P2" t="n">
-        <v>355.5213728247176</v>
+        <v>355.6226881519865</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -25598,28 +25725,28 @@
         <v>0.0532</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08171511715546512</v>
+        <v>0.1019430925890854</v>
       </c>
       <c r="J3" t="n">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="K3" t="n">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001948507948322686</v>
+        <v>0.00303393986550593</v>
       </c>
       <c r="M3" t="n">
-        <v>8.949794530767857</v>
+        <v>9.021292860229073</v>
       </c>
       <c r="N3" t="n">
-        <v>190.4791271406789</v>
+        <v>191.704839298442</v>
       </c>
       <c r="O3" t="n">
-        <v>13.80141757721571</v>
+        <v>13.84575166967984</v>
       </c>
       <c r="P3" t="n">
-        <v>366.5506020567879</v>
+        <v>366.3569962663216</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -25676,28 +25803,28 @@
         <v>0.0536</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3340688730060121</v>
+        <v>0.333680645371586</v>
       </c>
       <c r="J4" t="n">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="K4" t="n">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04214161378209713</v>
+        <v>0.04254843769283134</v>
       </c>
       <c r="M4" t="n">
-        <v>8.251732931199623</v>
+        <v>8.232274036119865</v>
       </c>
       <c r="N4" t="n">
-        <v>141.2690222565967</v>
+        <v>140.5951179942125</v>
       </c>
       <c r="O4" t="n">
-        <v>11.88566456941288</v>
+        <v>11.85728122270078</v>
       </c>
       <c r="P4" t="n">
-        <v>364.104162547619</v>
+        <v>364.1079855530132</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25754,28 +25881,28 @@
         <v>0.0552</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2970829203333381</v>
+        <v>0.2982003880451937</v>
       </c>
       <c r="J5" t="n">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="K5" t="n">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0360930802969528</v>
+        <v>0.03678735079534268</v>
       </c>
       <c r="M5" t="n">
-        <v>8.108273308074933</v>
+        <v>8.07757509180073</v>
       </c>
       <c r="N5" t="n">
-        <v>129.7015279742319</v>
+        <v>128.9774581980138</v>
       </c>
       <c r="O5" t="n">
-        <v>11.38865786536025</v>
+        <v>11.35682430074595</v>
       </c>
       <c r="P5" t="n">
-        <v>365.8797980852017</v>
+        <v>365.8688751210606</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -25832,28 +25959,28 @@
         <v>0.0601</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2231797782636654</v>
+        <v>0.2223736473692496</v>
       </c>
       <c r="J6" t="n">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="K6" t="n">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03453172849542496</v>
+        <v>0.03463693525343137</v>
       </c>
       <c r="M6" t="n">
-        <v>6.323463529079027</v>
+        <v>6.31461534296341</v>
       </c>
       <c r="N6" t="n">
-        <v>77.25217664781491</v>
+        <v>76.97080516148225</v>
       </c>
       <c r="O6" t="n">
-        <v>8.789321739919123</v>
+        <v>8.773300699365219</v>
       </c>
       <c r="P6" t="n">
-        <v>368.0773569607452</v>
+        <v>368.0852801599779</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -25910,28 +26037,28 @@
         <v>0.057</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2174280156700133</v>
+        <v>-0.2173241559906375</v>
       </c>
       <c r="J7" t="n">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="K7" t="n">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02962974194902512</v>
+        <v>0.02993744472617432</v>
       </c>
       <c r="M7" t="n">
-        <v>6.442782386704678</v>
+        <v>6.420879297064222</v>
       </c>
       <c r="N7" t="n">
-        <v>85.80060660321229</v>
+        <v>85.35946711305348</v>
       </c>
       <c r="O7" t="n">
-        <v>9.262861685419484</v>
+        <v>9.239018731069523</v>
       </c>
       <c r="P7" t="n">
-        <v>368.9578577382602</v>
+        <v>368.9568901253595</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -25988,28 +26115,28 @@
         <v>0.0515</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2327575943299734</v>
+        <v>-0.228055810993479</v>
       </c>
       <c r="J8" t="n">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="K8" t="n">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02854575575782836</v>
+        <v>0.02772001787064549</v>
       </c>
       <c r="M8" t="n">
-        <v>7.217946214609599</v>
+        <v>7.202710816311674</v>
       </c>
       <c r="N8" t="n">
-        <v>102.0501145359318</v>
+        <v>101.5959134725626</v>
       </c>
       <c r="O8" t="n">
-        <v>10.10198567292252</v>
+        <v>10.07947982152664</v>
       </c>
       <c r="P8" t="n">
-        <v>366.3354715533401</v>
+        <v>366.2892961208001</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -26047,7 +26174,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I614"/>
+  <dimension ref="A1:I617"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51025,6 +51152,143 @@
         </is>
       </c>
     </row>
+    <row r="615">
+      <c r="A615" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:11:12+00:00</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr"/>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>-36.62410800454844,174.77518761235743</t>
+        </is>
+      </c>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>-36.62412467535106,174.77431787117357</t>
+        </is>
+      </c>
+      <c r="E615" t="inlineStr">
+        <is>
+          <t>-36.62436711479846,174.77350134172102</t>
+        </is>
+      </c>
+      <c r="F615" t="inlineStr">
+        <is>
+          <t>-36.62470533140382,174.77274269525046</t>
+        </is>
+      </c>
+      <c r="G615" t="inlineStr">
+        <is>
+          <t>-36.62507700214731,174.77199135690353</t>
+        </is>
+      </c>
+      <c r="H615" t="inlineStr">
+        <is>
+          <t>-36.625603840859085,174.77138923344032</t>
+        </is>
+      </c>
+      <c r="I615" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>-36.62366657679729,174.77601434548978</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>-36.624067067286965,174.7751795006417</t>
+        </is>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>-36.624088999379104,174.7743032156738</t>
+        </is>
+      </c>
+      <c r="E616" t="inlineStr">
+        <is>
+          <t>-36.62435724435768,174.77349533244245</t>
+        </is>
+      </c>
+      <c r="F616" t="inlineStr">
+        <is>
+          <t>-36.62470667298203,174.77274384465034</t>
+        </is>
+      </c>
+      <c r="G616" t="inlineStr">
+        <is>
+          <t>-36.62504954452228,174.77195776194853</t>
+        </is>
+      </c>
+      <c r="H616" t="inlineStr">
+        <is>
+          <t>-36.62561179727394,174.77140094664733</t>
+        </is>
+      </c>
+      <c r="I616" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>-36.623541129486554,174.77600383488112</t>
+        </is>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>-36.623869678476595,174.77514038819734</t>
+        </is>
+      </c>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>-36.624002846602494,174.7742678246331</t>
+        </is>
+      </c>
+      <c r="E617" t="inlineStr">
+        <is>
+          <t>-36.624318895264665,174.7734719849326</t>
+        </is>
+      </c>
+      <c r="F617" t="inlineStr">
+        <is>
+          <t>-36.624619652395836,174.77266928968888</t>
+        </is>
+      </c>
+      <c r="G617" t="inlineStr">
+        <is>
+          <t>-36.6250242335646,174.77192679351637</t>
+        </is>
+      </c>
+      <c r="H617" t="inlineStr">
+        <is>
+          <t>-36.625582526953394,174.77135785573694</t>
+        </is>
+      </c>
+      <c r="I617" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0146/nzd0146.xlsx
+++ b/data/nzd0146/nzd0146.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I617"/>
+  <dimension ref="A1:I618"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18860,6 +18860,37 @@
         <v>361.73</v>
       </c>
       <c r="I617" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:05+00:00</t>
+        </is>
+      </c>
+      <c r="B618" t="n">
+        <v>328.9714285714285</v>
+      </c>
+      <c r="C618" t="inlineStr"/>
+      <c r="D618" t="n">
+        <v>360.65</v>
+      </c>
+      <c r="E618" t="n">
+        <v>371.6</v>
+      </c>
+      <c r="F618" t="n">
+        <v>376.0118181818182</v>
+      </c>
+      <c r="G618" t="n">
+        <v>368.5418181818182</v>
+      </c>
+      <c r="H618" t="n">
+        <v>363.28</v>
+      </c>
+      <c r="I618" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -18876,7 +18907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B659"/>
+  <dimension ref="A1:B660"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25474,6 +25505,16 @@
       </c>
       <c r="B659" t="n">
         <v>1.03</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B660" t="n">
+        <v>-0.87</v>
       </c>
     </row>
   </sheetData>
@@ -25647,28 +25688,28 @@
         <v>0.08740000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1227910663167142</v>
+        <v>-0.1351218105712111</v>
       </c>
       <c r="J2" t="n">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="K2" t="n">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00155803996511783</v>
+        <v>0.001891910662619734</v>
       </c>
       <c r="M2" t="n">
-        <v>14.57186149876766</v>
+        <v>14.58557222971406</v>
       </c>
       <c r="N2" t="n">
-        <v>536.1669207006523</v>
+        <v>536.1954193954377</v>
       </c>
       <c r="O2" t="n">
-        <v>23.15527846303413</v>
+        <v>23.15589383710847</v>
       </c>
       <c r="P2" t="n">
-        <v>355.6226881519865</v>
+        <v>355.7424401630059</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -25728,7 +25769,7 @@
         <v>0.1019430925890854</v>
       </c>
       <c r="J3" t="n">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="K3" t="n">
         <v>459</v>
@@ -25803,28 +25844,28 @@
         <v>0.0536</v>
       </c>
       <c r="I4" t="n">
-        <v>0.333680645371586</v>
+        <v>0.3286464274686612</v>
       </c>
       <c r="J4" t="n">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="K4" t="n">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04254843769283134</v>
+        <v>0.04142362546962042</v>
       </c>
       <c r="M4" t="n">
-        <v>8.232274036119865</v>
+        <v>8.231847114304271</v>
       </c>
       <c r="N4" t="n">
-        <v>140.5951179942125</v>
+        <v>140.6034037770168</v>
       </c>
       <c r="O4" t="n">
-        <v>11.85728122270078</v>
+        <v>11.85763061395559</v>
       </c>
       <c r="P4" t="n">
-        <v>364.1079855530132</v>
+        <v>364.1565610131019</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25881,28 +25922,28 @@
         <v>0.0552</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2982003880451937</v>
+        <v>0.2974479090983143</v>
       </c>
       <c r="J5" t="n">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="K5" t="n">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03678735079534268</v>
+        <v>0.03675427405423293</v>
       </c>
       <c r="M5" t="n">
-        <v>8.07757509180073</v>
+        <v>8.064598406941348</v>
       </c>
       <c r="N5" t="n">
-        <v>128.9774581980138</v>
+        <v>128.7305737779406</v>
       </c>
       <c r="O5" t="n">
-        <v>11.35682430074595</v>
+        <v>11.34594966399643</v>
       </c>
       <c r="P5" t="n">
-        <v>365.8688751210606</v>
+        <v>365.8762722457616</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -25959,28 +26000,28 @@
         <v>0.0601</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2223736473692496</v>
+        <v>0.2232269050107068</v>
       </c>
       <c r="J6" t="n">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="K6" t="n">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03463693525343137</v>
+        <v>0.03503268104921464</v>
       </c>
       <c r="M6" t="n">
-        <v>6.31461534296341</v>
+        <v>6.306923514266376</v>
       </c>
       <c r="N6" t="n">
-        <v>76.97080516148225</v>
+        <v>76.82584427211454</v>
       </c>
       <c r="O6" t="n">
-        <v>8.773300699365219</v>
+        <v>8.76503532634721</v>
       </c>
       <c r="P6" t="n">
-        <v>368.0852801599779</v>
+        <v>368.0769382259515</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26037,28 +26078,28 @@
         <v>0.057</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2173241559906375</v>
+        <v>-0.2153560506439568</v>
       </c>
       <c r="J7" t="n">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="K7" t="n">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02993744472617432</v>
+        <v>0.02951319244087747</v>
       </c>
       <c r="M7" t="n">
-        <v>6.420879297064222</v>
+        <v>6.418549064070863</v>
       </c>
       <c r="N7" t="n">
-        <v>85.35946711305348</v>
+        <v>85.24409991280143</v>
       </c>
       <c r="O7" t="n">
-        <v>9.239018731069523</v>
+        <v>9.232773143146183</v>
       </c>
       <c r="P7" t="n">
-        <v>368.9568901253595</v>
+        <v>368.9375603106399</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26115,28 +26156,28 @@
         <v>0.0515</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.228055810993479</v>
+        <v>-0.2270063631283596</v>
       </c>
       <c r="J8" t="n">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="K8" t="n">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02772001787064549</v>
+        <v>0.02757378843418645</v>
       </c>
       <c r="M8" t="n">
-        <v>7.202710816311674</v>
+        <v>7.194831712434532</v>
       </c>
       <c r="N8" t="n">
-        <v>101.5959134725626</v>
+        <v>101.4183392480312</v>
       </c>
       <c r="O8" t="n">
-        <v>10.07947982152664</v>
+        <v>10.07066726925436</v>
       </c>
       <c r="P8" t="n">
-        <v>366.2892961208001</v>
+        <v>366.2789584682997</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -26174,7 +26215,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I617"/>
+  <dimension ref="A1:I618"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26885,7 +26926,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>-36.62564983705061,174.7714569477797</t>
+          <t>-36.6256498370506,174.7714569477797</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -30879,7 +30920,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>-36.62494145226384,174.77182550925582</t>
+          <t>-36.62494145226383,174.77182550925582</t>
         </is>
       </c>
       <c r="H109" t="inlineStr"/>
@@ -51289,6 +51330,49 @@
         </is>
       </c>
     </row>
+    <row r="618">
+      <c r="A618" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:05+00:00</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>-36.62348005002945,174.77599871735154</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr"/>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>-36.623971619425824,174.77425499671915</t>
+        </is>
+      </c>
+      <c r="E618" t="inlineStr">
+        <is>
+          <t>-36.62432431591736,174.7734752851066</t>
+        </is>
+      </c>
+      <c r="F618" t="inlineStr">
+        <is>
+          <t>-36.624698515647005,174.77273685583748</t>
+        </is>
+      </c>
+      <c r="G618" t="inlineStr">
+        <is>
+          <t>-36.625082847172614,174.7719985084139</t>
+        </is>
+      </c>
+      <c r="H618" t="inlineStr">
+        <is>
+          <t>-36.62559152874026,174.77137110789837</t>
+        </is>
+      </c>
+      <c r="I618" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0146/nzd0146.xlsx
+++ b/data/nzd0146/nzd0146.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I618"/>
+  <dimension ref="A1:I619"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18893,6 +18893,39 @@
       <c r="I618" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B619" t="n">
+        <v>323.3014285714286</v>
+      </c>
+      <c r="C619" t="n">
+        <v>365.2</v>
+      </c>
+      <c r="D619" t="n">
+        <v>366.53</v>
+      </c>
+      <c r="E619" t="n">
+        <v>369.54</v>
+      </c>
+      <c r="F619" t="n">
+        <v>367.5572727272727</v>
+      </c>
+      <c r="G619" t="n">
+        <v>358.5972727272728</v>
+      </c>
+      <c r="H619" t="n">
+        <v>359.36</v>
+      </c>
+      <c r="I619" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -18907,7 +18940,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B660"/>
+  <dimension ref="A1:B661"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25515,6 +25548,16 @@
       </c>
       <c r="B660" t="n">
         <v>-0.87</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B661" t="n">
+        <v>0.8100000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -25688,28 +25731,28 @@
         <v>0.08740000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1351218105712111</v>
+        <v>-0.1502263478248815</v>
       </c>
       <c r="J2" t="n">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="K2" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001891910662619734</v>
+        <v>0.00234138322206634</v>
       </c>
       <c r="M2" t="n">
-        <v>14.58557222971406</v>
+        <v>14.61082368767855</v>
       </c>
       <c r="N2" t="n">
-        <v>536.1954193954377</v>
+        <v>536.9761660620341</v>
       </c>
       <c r="O2" t="n">
-        <v>23.15589383710847</v>
+        <v>23.17274619163715</v>
       </c>
       <c r="P2" t="n">
-        <v>355.7424401630059</v>
+        <v>355.8892816976752</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -25766,28 +25809,28 @@
         <v>0.0532</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1019430925890854</v>
+        <v>0.1003138869055102</v>
       </c>
       <c r="J3" t="n">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="K3" t="n">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00303393986550593</v>
+        <v>0.002951678413487868</v>
       </c>
       <c r="M3" t="n">
-        <v>9.021292860229073</v>
+        <v>9.007838172286451</v>
       </c>
       <c r="N3" t="n">
-        <v>191.704839298442</v>
+        <v>191.3190585765848</v>
       </c>
       <c r="O3" t="n">
-        <v>13.84575166967984</v>
+        <v>13.83181327869144</v>
       </c>
       <c r="P3" t="n">
-        <v>366.3569962663216</v>
+        <v>366.372658609393</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -25844,28 +25887,28 @@
         <v>0.0536</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3286464274686612</v>
+        <v>0.3261094562147114</v>
       </c>
       <c r="J4" t="n">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="K4" t="n">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04142362546962042</v>
+        <v>0.04097115202436119</v>
       </c>
       <c r="M4" t="n">
-        <v>8.231847114304271</v>
+        <v>8.223052828037213</v>
       </c>
       <c r="N4" t="n">
-        <v>140.6034037770168</v>
+        <v>140.383536075712</v>
       </c>
       <c r="O4" t="n">
-        <v>11.85763061395559</v>
+        <v>11.84835583849979</v>
       </c>
       <c r="P4" t="n">
-        <v>364.1565610131019</v>
+        <v>364.1810660113158</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25922,28 +25965,28 @@
         <v>0.0552</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2974479090983143</v>
+        <v>0.2959118547345491</v>
       </c>
       <c r="J5" t="n">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="K5" t="n">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03675427405423293</v>
+        <v>0.0365269774243443</v>
       </c>
       <c r="M5" t="n">
-        <v>8.064598406941348</v>
+        <v>8.054730453971318</v>
       </c>
       <c r="N5" t="n">
-        <v>128.7305737779406</v>
+        <v>128.508653930168</v>
       </c>
       <c r="O5" t="n">
-        <v>11.34594966399643</v>
+        <v>11.33616575082457</v>
       </c>
       <c r="P5" t="n">
-        <v>365.8762722457616</v>
+        <v>365.8913881008122</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26000,28 +26043,28 @@
         <v>0.0601</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2232269050107068</v>
+        <v>0.2207940263010443</v>
       </c>
       <c r="J6" t="n">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="K6" t="n">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03503268104921464</v>
+        <v>0.0344052461489438</v>
       </c>
       <c r="M6" t="n">
-        <v>6.306923514266376</v>
+        <v>6.305139602919484</v>
       </c>
       <c r="N6" t="n">
-        <v>76.82584427211454</v>
+        <v>76.75042577575829</v>
       </c>
       <c r="O6" t="n">
-        <v>8.76503532634721</v>
+        <v>8.760732034239963</v>
       </c>
       <c r="P6" t="n">
-        <v>368.0769382259515</v>
+        <v>368.1007487491137</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26078,28 +26121,28 @@
         <v>0.057</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2153560506439568</v>
+        <v>-0.2171632858432556</v>
       </c>
       <c r="J7" t="n">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="K7" t="n">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02951319244087747</v>
+        <v>0.03009948938820339</v>
       </c>
       <c r="M7" t="n">
-        <v>6.418549064070863</v>
+        <v>6.415190569014304</v>
       </c>
       <c r="N7" t="n">
-        <v>85.24409991280143</v>
+        <v>85.12130367401528</v>
       </c>
       <c r="O7" t="n">
-        <v>9.232773143146183</v>
+        <v>9.226120727262098</v>
       </c>
       <c r="P7" t="n">
-        <v>368.9375603106399</v>
+        <v>368.9553291637112</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26156,28 +26199,28 @@
         <v>0.0515</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2270063631283596</v>
+        <v>-0.2273928787303805</v>
       </c>
       <c r="J8" t="n">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="K8" t="n">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02757378843418645</v>
+        <v>0.02777035815078632</v>
       </c>
       <c r="M8" t="n">
-        <v>7.194831712434532</v>
+        <v>7.183050350408497</v>
       </c>
       <c r="N8" t="n">
-        <v>101.4183392480312</v>
+        <v>101.228019195524</v>
       </c>
       <c r="O8" t="n">
-        <v>10.07066726925436</v>
+        <v>10.06121360450736</v>
       </c>
       <c r="P8" t="n">
-        <v>366.2789584682997</v>
+        <v>366.2827699584706</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -26215,7 +26258,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I618"/>
+  <dimension ref="A1:I619"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51373,6 +51416,53 @@
         </is>
       </c>
     </row>
+    <row r="619">
+      <c r="A619" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>-36.62342906698655,174.77599444575569</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>-36.62384449315773,174.77513539776155</t>
+        </is>
+      </c>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>-36.62402192512323,174.7742756619667</t>
+        </is>
+      </c>
+      <c r="E619" t="inlineStr">
+        <is>
+          <t>-36.624307649432545,174.77346513830446</t>
+        </is>
+      </c>
+      <c r="F619" t="inlineStr">
+        <is>
+          <t>-36.62463581875909,174.77268314021816</t>
+        </is>
+      </c>
+      <c r="G619" t="inlineStr">
+        <is>
+          <t>-36.62501903603799,174.77192043424876</t>
+        </is>
+      </c>
+      <c r="H619" t="inlineStr">
+        <is>
+          <t>-36.62556876292789,174.7713375927605</t>
+        </is>
+      </c>
+      <c r="I619" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0146/nzd0146.xlsx
+++ b/data/nzd0146/nzd0146.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I619"/>
+  <dimension ref="A1:I621"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18926,6 +18926,68 @@
       <c r="I619" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:05:28+00:00</t>
+        </is>
+      </c>
+      <c r="B620" t="n">
+        <v>334.5114285714285</v>
+      </c>
+      <c r="C620" t="n">
+        <v>356.08</v>
+      </c>
+      <c r="D620" t="n">
+        <v>367.24</v>
+      </c>
+      <c r="E620" t="n">
+        <v>368.08</v>
+      </c>
+      <c r="F620" t="n">
+        <v>386.9154545454546</v>
+      </c>
+      <c r="G620" t="n">
+        <v>391.4854545454546</v>
+      </c>
+      <c r="H620" t="inlineStr"/>
+      <c r="I620" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr"/>
+      <c r="C621" t="n">
+        <v>351.24</v>
+      </c>
+      <c r="D621" t="n">
+        <v>354.31</v>
+      </c>
+      <c r="E621" t="n">
+        <v>359.98</v>
+      </c>
+      <c r="F621" t="n">
+        <v>363.4081818181818</v>
+      </c>
+      <c r="G621" t="n">
+        <v>353.6781818181818</v>
+      </c>
+      <c r="H621" t="n">
+        <v>347.22</v>
+      </c>
+      <c r="I621" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -18940,7 +19002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B661"/>
+  <dimension ref="A1:B663"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25558,6 +25620,26 @@
       </c>
       <c r="B661" t="n">
         <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B662" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B663" t="n">
+        <v>0.32</v>
       </c>
     </row>
   </sheetData>
@@ -25731,28 +25813,28 @@
         <v>0.08740000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1502263478248815</v>
+        <v>-0.1593446444302536</v>
       </c>
       <c r="J2" t="n">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="K2" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00234138322206634</v>
+        <v>0.002644814810939145</v>
       </c>
       <c r="M2" t="n">
-        <v>14.61082368767855</v>
+        <v>14.61038487670389</v>
       </c>
       <c r="N2" t="n">
-        <v>536.9761660620341</v>
+        <v>536.3595151863688</v>
       </c>
       <c r="O2" t="n">
-        <v>23.17274619163715</v>
+        <v>23.15943684950842</v>
       </c>
       <c r="P2" t="n">
-        <v>355.8892816976752</v>
+        <v>355.9782919047586</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -25809,28 +25891,28 @@
         <v>0.0532</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1003138869055102</v>
+        <v>0.08720803338514707</v>
       </c>
       <c r="J3" t="n">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="K3" t="n">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002951678413487868</v>
+        <v>0.002241981818299821</v>
       </c>
       <c r="M3" t="n">
-        <v>9.007838172286451</v>
+        <v>9.017847641145345</v>
       </c>
       <c r="N3" t="n">
-        <v>191.3190585765848</v>
+        <v>191.5169440010755</v>
       </c>
       <c r="O3" t="n">
-        <v>13.83181327869144</v>
+        <v>13.83896470120057</v>
       </c>
       <c r="P3" t="n">
-        <v>366.372658609393</v>
+        <v>366.4992428349672</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -25887,28 +25969,28 @@
         <v>0.0536</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3261094562147114</v>
+        <v>0.3163012354042699</v>
       </c>
       <c r="J4" t="n">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="K4" t="n">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04097115202436119</v>
+        <v>0.03877909866894935</v>
       </c>
       <c r="M4" t="n">
-        <v>8.223052828037213</v>
+        <v>8.221978576716664</v>
       </c>
       <c r="N4" t="n">
-        <v>140.383536075712</v>
+        <v>140.5529822780861</v>
       </c>
       <c r="O4" t="n">
-        <v>11.84835583849979</v>
+        <v>11.85550430298459</v>
       </c>
       <c r="P4" t="n">
-        <v>364.1810660113158</v>
+        <v>364.2762759594581</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25965,28 +26047,28 @@
         <v>0.0552</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2959118547345491</v>
+        <v>0.2886371335750988</v>
       </c>
       <c r="J5" t="n">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="K5" t="n">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0365269774243443</v>
+        <v>0.03498753358091145</v>
       </c>
       <c r="M5" t="n">
-        <v>8.054730453971318</v>
+        <v>8.051488291094232</v>
       </c>
       <c r="N5" t="n">
-        <v>128.508653930168</v>
+        <v>128.4206582171539</v>
       </c>
       <c r="O5" t="n">
-        <v>11.33616575082457</v>
+        <v>11.33228389236494</v>
       </c>
       <c r="P5" t="n">
-        <v>365.8913881008122</v>
+        <v>365.963330012993</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26043,28 +26125,28 @@
         <v>0.0601</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2207940263010443</v>
+        <v>0.2218210540744649</v>
       </c>
       <c r="J6" t="n">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="K6" t="n">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0344052461489438</v>
+        <v>0.03475523135886949</v>
       </c>
       <c r="M6" t="n">
-        <v>6.305139602919484</v>
+        <v>6.327624856431574</v>
       </c>
       <c r="N6" t="n">
-        <v>76.75042577575829</v>
+        <v>77.0028527846365</v>
       </c>
       <c r="O6" t="n">
-        <v>8.760732034239963</v>
+        <v>8.775126938377387</v>
       </c>
       <c r="P6" t="n">
-        <v>368.1007487491137</v>
+        <v>368.0906965580169</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26121,28 +26203,28 @@
         <v>0.057</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2171632858432556</v>
+        <v>-0.2102077902628231</v>
       </c>
       <c r="J7" t="n">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="K7" t="n">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03009948938820339</v>
+        <v>0.02792916086786768</v>
       </c>
       <c r="M7" t="n">
-        <v>6.415190569014304</v>
+        <v>6.464910779533828</v>
       </c>
       <c r="N7" t="n">
-        <v>85.12130367401528</v>
+        <v>86.51738391564891</v>
       </c>
       <c r="O7" t="n">
-        <v>9.226120727262098</v>
+        <v>9.301472137014061</v>
       </c>
       <c r="P7" t="n">
-        <v>368.9553291637112</v>
+        <v>368.8866891884859</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26199,28 +26281,28 @@
         <v>0.0515</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2273928787303805</v>
+        <v>-0.2322102267517167</v>
       </c>
       <c r="J8" t="n">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="K8" t="n">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02777035815078632</v>
+        <v>0.02894604596577333</v>
       </c>
       <c r="M8" t="n">
-        <v>7.183050350408497</v>
+        <v>7.19269295606182</v>
       </c>
       <c r="N8" t="n">
-        <v>101.228019195524</v>
+        <v>101.3628868659843</v>
       </c>
       <c r="O8" t="n">
-        <v>10.06121360450736</v>
+        <v>10.06791372956604</v>
       </c>
       <c r="P8" t="n">
-        <v>366.2827699584706</v>
+        <v>366.3305280704868</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -26258,7 +26340,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I619"/>
+  <dimension ref="A1:I621"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51463,6 +51545,92 @@
         </is>
       </c>
     </row>
+    <row r="620">
+      <c r="A620" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:05:28+00:00</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>-36.623529864148274,174.77600289101633</t>
+        </is>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>-36.623763330572686,174.77511931553337</t>
+        </is>
+      </c>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>-36.62402799945032,174.7742781572621</t>
+        </is>
+      </c>
+      <c r="E620" t="inlineStr">
+        <is>
+          <t>-36.62429583726306,174.7734579468843</t>
+        </is>
+      </c>
+      <c r="F620" t="inlineStr">
+        <is>
+          <t>-36.62477937436742,174.77280613178894</t>
+        </is>
+      </c>
+      <c r="G620" t="inlineStr">
+        <is>
+          <t>-36.62523006932331,174.77217863833047</t>
+        </is>
+      </c>
+      <c r="H620" t="inlineStr"/>
+      <c r="I620" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr"/>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>-36.623720257444724,174.77511078068179</t>
+        </is>
+      </c>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>-36.623917378243405,174.77423271483403</t>
+        </is>
+      </c>
+      <c r="E621" t="inlineStr">
+        <is>
+          <t>-36.62423030398464,174.77341804932018</t>
+        </is>
+      </c>
+      <c r="F621" t="inlineStr">
+        <is>
+          <t>-36.624605050082856,174.7726567791658</t>
+        </is>
+      </c>
+      <c r="G621" t="inlineStr">
+        <is>
+          <t>-36.62498747170185,174.77188181474182</t>
+        </is>
+      </c>
+      <c r="H621" t="inlineStr">
+        <is>
+          <t>-36.62549825853704,174.77123379855487</t>
+        </is>
+      </c>
+      <c r="I621" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0146/nzd0146.xlsx
+++ b/data/nzd0146/nzd0146.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I621"/>
+  <dimension ref="A1:I626"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18988,6 +18988,161 @@
       <c r="I621" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B622" t="n">
+        <v>341.2271428571428</v>
+      </c>
+      <c r="C622" t="n">
+        <v>354.15</v>
+      </c>
+      <c r="D622" t="n">
+        <v>363.17</v>
+      </c>
+      <c r="E622" t="n">
+        <v>362.57</v>
+      </c>
+      <c r="F622" t="n">
+        <v>365.1054545454546</v>
+      </c>
+      <c r="G622" t="n">
+        <v>363.3454545454546</v>
+      </c>
+      <c r="H622" t="n">
+        <v>353.25</v>
+      </c>
+      <c r="I622" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:33+00:00</t>
+        </is>
+      </c>
+      <c r="B623" t="n">
+        <v>378.3385714285714</v>
+      </c>
+      <c r="C623" t="n">
+        <v>379.92</v>
+      </c>
+      <c r="D623" t="n">
+        <v>370.13</v>
+      </c>
+      <c r="E623" t="n">
+        <v>366.24</v>
+      </c>
+      <c r="F623" t="n">
+        <v>369.5990909090909</v>
+      </c>
+      <c r="G623" t="n">
+        <v>363.4790909090909</v>
+      </c>
+      <c r="H623" t="n">
+        <v>362.54</v>
+      </c>
+      <c r="I623" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B624" t="n">
+        <v>342.2957142857143</v>
+      </c>
+      <c r="C624" t="n">
+        <v>355.15</v>
+      </c>
+      <c r="D624" t="n">
+        <v>356.64</v>
+      </c>
+      <c r="E624" t="n">
+        <v>357.31</v>
+      </c>
+      <c r="F624" t="n">
+        <v>362.5663636363636</v>
+      </c>
+      <c r="G624" t="n">
+        <v>355.7563636363636</v>
+      </c>
+      <c r="H624" t="n">
+        <v>346.92</v>
+      </c>
+      <c r="I624" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B625" t="n">
+        <v>336.9314285714286</v>
+      </c>
+      <c r="C625" t="n">
+        <v>357.8200000000001</v>
+      </c>
+      <c r="D625" t="n">
+        <v>356.64</v>
+      </c>
+      <c r="E625" t="n">
+        <v>361.46</v>
+      </c>
+      <c r="F625" t="n">
+        <v>361.6063636363637</v>
+      </c>
+      <c r="G625" t="n">
+        <v>354.1663636363636</v>
+      </c>
+      <c r="H625" t="n">
+        <v>352.41</v>
+      </c>
+      <c r="I625" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr"/>
+      <c r="C626" t="inlineStr"/>
+      <c r="D626" t="inlineStr"/>
+      <c r="E626" t="inlineStr"/>
+      <c r="F626" t="n">
+        <v>396.4027272727273</v>
+      </c>
+      <c r="G626" t="inlineStr"/>
+      <c r="H626" t="n">
+        <v>366.96</v>
+      </c>
+      <c r="I626" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -19002,7 +19157,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B663"/>
+  <dimension ref="A1:B668"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25640,6 +25795,56 @@
       </c>
       <c r="B663" t="n">
         <v>0.32</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B664" t="n">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B665" t="n">
+        <v>-0.39</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B666" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B667" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B668" t="n">
+        <v>-0.92</v>
       </c>
     </row>
   </sheetData>
@@ -25813,28 +26018,28 @@
         <v>0.08740000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1593446444302536</v>
+        <v>-0.16371260641957</v>
       </c>
       <c r="J2" t="n">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="K2" t="n">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002644814810939145</v>
+        <v>0.002839888677823588</v>
       </c>
       <c r="M2" t="n">
-        <v>14.61038487670389</v>
+        <v>14.61439881073895</v>
       </c>
       <c r="N2" t="n">
-        <v>536.3595151863688</v>
+        <v>533.7017181463078</v>
       </c>
       <c r="O2" t="n">
-        <v>23.15943684950842</v>
+        <v>23.10198515596242</v>
       </c>
       <c r="P2" t="n">
-        <v>355.9782919047586</v>
+        <v>356.0211312603122</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -25891,28 +26096,28 @@
         <v>0.0532</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08720803338514707</v>
+        <v>0.07549751263734474</v>
       </c>
       <c r="J3" t="n">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="K3" t="n">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002241981818299821</v>
+        <v>0.001701099272938267</v>
       </c>
       <c r="M3" t="n">
-        <v>9.017847641145345</v>
+        <v>9.03357728952531</v>
       </c>
       <c r="N3" t="n">
-        <v>191.5169440010755</v>
+        <v>191.2415090282976</v>
       </c>
       <c r="O3" t="n">
-        <v>13.83896470120057</v>
+        <v>13.82900969080207</v>
       </c>
       <c r="P3" t="n">
-        <v>366.4992428349672</v>
+        <v>366.612601825175</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -25969,28 +26174,28 @@
         <v>0.0536</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3163012354042699</v>
+        <v>0.2987705849854183</v>
       </c>
       <c r="J4" t="n">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="K4" t="n">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03877909866894935</v>
+        <v>0.03506282187567389</v>
       </c>
       <c r="M4" t="n">
-        <v>8.221978576716664</v>
+        <v>8.212839707767218</v>
       </c>
       <c r="N4" t="n">
-        <v>140.5529822780861</v>
+        <v>140.5945809514432</v>
       </c>
       <c r="O4" t="n">
-        <v>11.85550430298459</v>
+        <v>11.85725857656158</v>
       </c>
       <c r="P4" t="n">
-        <v>364.2762759594581</v>
+        <v>364.4467821228778</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26047,28 +26252,28 @@
         <v>0.0552</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2886371335750988</v>
+        <v>0.2713463671936429</v>
       </c>
       <c r="J5" t="n">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="K5" t="n">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03498753358091145</v>
+        <v>0.03128679677845458</v>
       </c>
       <c r="M5" t="n">
-        <v>8.051488291094232</v>
+        <v>8.056023247076919</v>
       </c>
       <c r="N5" t="n">
-        <v>128.4206582171539</v>
+        <v>128.5147546776979</v>
       </c>
       <c r="O5" t="n">
-        <v>11.33228389236494</v>
+        <v>11.33643483100829</v>
       </c>
       <c r="P5" t="n">
-        <v>365.963330012993</v>
+        <v>366.1346486223276</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26125,28 +26330,28 @@
         <v>0.0601</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2218210540744649</v>
+        <v>0.2165982224352802</v>
       </c>
       <c r="J6" t="n">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="K6" t="n">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03475523135886949</v>
+        <v>0.03313635221938405</v>
       </c>
       <c r="M6" t="n">
-        <v>6.327624856431574</v>
+        <v>6.37782080787655</v>
       </c>
       <c r="N6" t="n">
-        <v>77.0028527846365</v>
+        <v>77.97873515110011</v>
       </c>
       <c r="O6" t="n">
-        <v>8.775126938377387</v>
+        <v>8.830556899261797</v>
       </c>
       <c r="P6" t="n">
-        <v>368.0906965580169</v>
+        <v>368.1420392184926</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26203,28 +26408,28 @@
         <v>0.057</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2102077902628231</v>
+        <v>-0.2164846535804346</v>
       </c>
       <c r="J7" t="n">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="K7" t="n">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02792916086786768</v>
+        <v>0.02994598940082072</v>
       </c>
       <c r="M7" t="n">
-        <v>6.464910779533828</v>
+        <v>6.446704585439403</v>
       </c>
       <c r="N7" t="n">
-        <v>86.51738391564891</v>
+        <v>86.12310206392728</v>
       </c>
       <c r="O7" t="n">
-        <v>9.301472137014061</v>
+        <v>9.280253340503549</v>
       </c>
       <c r="P7" t="n">
-        <v>368.8866891884859</v>
+        <v>368.9488605906</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26281,28 +26486,28 @@
         <v>0.0515</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2322102267517167</v>
+        <v>-0.2391359692213893</v>
       </c>
       <c r="J8" t="n">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="K8" t="n">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02894604596577333</v>
+        <v>0.03104078675945465</v>
       </c>
       <c r="M8" t="n">
-        <v>7.19269295606182</v>
+        <v>7.192522445150588</v>
       </c>
       <c r="N8" t="n">
-        <v>101.3628868659843</v>
+        <v>101.0470099069592</v>
       </c>
       <c r="O8" t="n">
-        <v>10.06791372956604</v>
+        <v>10.05221417932185</v>
       </c>
       <c r="P8" t="n">
-        <v>366.3305280704868</v>
+        <v>366.399279816218</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -26340,7 +26545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I621"/>
+  <dimension ref="A1:I626"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51631,6 +51836,221 @@
         </is>
       </c>
     </row>
+    <row r="622">
+      <c r="A622" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>-36.62359024995772,174.77600795043693</t>
+        </is>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>-36.62374615471808,174.77511591217188</t>
+        </is>
+      </c>
+      <c r="D622" t="inlineStr">
+        <is>
+          <t>-36.623993179011,174.77426385325037</t>
+        </is>
+      </c>
+      <c r="E622" t="inlineStr">
+        <is>
+          <t>-36.624251258454414,174.77343080668192</t>
+        </is>
+      </c>
+      <c r="F622" t="inlineStr">
+        <is>
+          <t>-36.62461763665651,174.77266756270504</t>
+        </is>
+      </c>
+      <c r="G622" t="inlineStr">
+        <is>
+          <t>-36.62504950368876,174.77195771198794</t>
+        </is>
+      </c>
+      <c r="H622" t="inlineStr">
+        <is>
+          <t>-36.62553327844009,174.7712853536434</t>
+        </is>
+      </c>
+      <c r="I622" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:33+00:00</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>-36.623923945442016,174.77603590926773</t>
+        </is>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>-36.623975492409095,174.77516135512056</t>
+        </is>
+      </c>
+      <c r="D623" t="inlineStr">
+        <is>
+          <t>-36.62405272452747,174.77428831417296</t>
+        </is>
+      </c>
+      <c r="E623" t="inlineStr">
+        <is>
+          <t>-36.624280950692565,174.77344888372784</t>
+        </is>
+      </c>
+      <c r="F623" t="inlineStr">
+        <is>
+          <t>-36.62465096039709,174.77269611282094</t>
+        </is>
+      </c>
+      <c r="G623" t="inlineStr">
+        <is>
+          <t>-36.6250503611928,174.7719587611608</t>
+        </is>
+      </c>
+      <c r="H623" t="inlineStr">
+        <is>
+          <t>-36.62558723111319,174.77136478105962</t>
+        </is>
+      </c>
+      <c r="I623" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>-36.623599858250635,174.77600875546796</t>
+        </is>
+      </c>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>-36.62375505412462,174.7751176755714</t>
+        </is>
+      </c>
+      <c r="D624" t="inlineStr">
+        <is>
+          <t>-36.623937312306346,174.77424090359872</t>
+        </is>
+      </c>
+      <c r="E624" t="inlineStr">
+        <is>
+          <t>-36.62420870227087,174.77340489791612</t>
+        </is>
+      </c>
+      <c r="F624" t="inlineStr">
+        <is>
+          <t>-36.62459880735765,174.7726514307165</t>
+        </is>
+      </c>
+      <c r="G624" t="inlineStr">
+        <is>
+          <t>-36.625000806775105,174.7718981304269</t>
+        </is>
+      </c>
+      <c r="H624" t="inlineStr">
+        <is>
+          <t>-36.62549651625269,174.7712312336263</t>
+        </is>
+      </c>
+      <c r="I624" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>-36.6235516241061,174.77600471417165</t>
+        </is>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>-36.623778815539886,174.77512238385034</t>
+        </is>
+      </c>
+      <c r="D625" t="inlineStr">
+        <is>
+          <t>-36.623937312306346,174.77424090359872</t>
+        </is>
+      </c>
+      <c r="E625" t="inlineStr">
+        <is>
+          <t>-36.624242277967575,174.7734253392403</t>
+        </is>
+      </c>
+      <c r="F625" t="inlineStr">
+        <is>
+          <t>-36.624591688223596,174.77264533140607</t>
+        </is>
+      </c>
+      <c r="G625" t="inlineStr">
+        <is>
+          <t>-36.62499060421928,174.7718856474285</t>
+        </is>
+      </c>
+      <c r="H625" t="inlineStr">
+        <is>
+          <t>-36.62552840004706,174.77127817183722</t>
+        </is>
+      </c>
+      <c r="I625" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr"/>
+      <c r="C626" t="inlineStr"/>
+      <c r="D626" t="inlineStr"/>
+      <c r="E626" t="inlineStr"/>
+      <c r="F626" t="inlineStr">
+        <is>
+          <t>-36.62484972964212,174.77286640903264</t>
+        </is>
+      </c>
+      <c r="G626" t="inlineStr"/>
+      <c r="H626" t="inlineStr">
+        <is>
+          <t>-36.62561290071825,174.77140257110688</t>
+        </is>
+      </c>
+      <c r="I626" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0146/nzd0146.xlsx
+++ b/data/nzd0146/nzd0146.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I626"/>
+  <dimension ref="A1:I628"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19143,6 +19143,72 @@
       <c r="I626" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:11:51+00:00</t>
+        </is>
+      </c>
+      <c r="B627" t="n">
+        <v>354.3414285714285</v>
+      </c>
+      <c r="C627" t="n">
+        <v>367.15</v>
+      </c>
+      <c r="D627" t="n">
+        <v>364.9</v>
+      </c>
+      <c r="E627" t="n">
+        <v>371.09</v>
+      </c>
+      <c r="F627" t="n">
+        <v>368.78</v>
+      </c>
+      <c r="G627" t="n">
+        <v>363.73</v>
+      </c>
+      <c r="H627" t="n">
+        <v>359.51</v>
+      </c>
+      <c r="I627" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B628" t="n">
+        <v>347.0814285714285</v>
+      </c>
+      <c r="C628" t="n">
+        <v>356.23</v>
+      </c>
+      <c r="D628" t="n">
+        <v>372.08</v>
+      </c>
+      <c r="E628" t="n">
+        <v>366.16</v>
+      </c>
+      <c r="F628" t="n">
+        <v>371.0390909090909</v>
+      </c>
+      <c r="G628" t="n">
+        <v>354.2190909090909</v>
+      </c>
+      <c r="H628" t="n">
+        <v>366.14</v>
+      </c>
+      <c r="I628" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -19157,7 +19223,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B668"/>
+  <dimension ref="A1:B670"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25845,6 +25911,26 @@
       </c>
       <c r="B668" t="n">
         <v>-0.92</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B669" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B670" t="n">
+        <v>-0.9399999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -26018,28 +26104,28 @@
         <v>0.08740000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.16371260641957</v>
+        <v>-0.1647765105368011</v>
       </c>
       <c r="J2" t="n">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="K2" t="n">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002839888677823588</v>
+        <v>0.002908742970790801</v>
       </c>
       <c r="M2" t="n">
-        <v>14.61439881073895</v>
+        <v>14.55631151156656</v>
       </c>
       <c r="N2" t="n">
-        <v>533.7017181463078</v>
+        <v>531.0031018950772</v>
       </c>
       <c r="O2" t="n">
-        <v>23.10198515596242</v>
+        <v>23.04350454889788</v>
       </c>
       <c r="P2" t="n">
-        <v>356.0211312603122</v>
+        <v>356.0316413027139</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26096,28 +26182,28 @@
         <v>0.0532</v>
       </c>
       <c r="I3" t="n">
-        <v>0.07549751263734474</v>
+        <v>0.06976178983278043</v>
       </c>
       <c r="J3" t="n">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="K3" t="n">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001701099272938267</v>
+        <v>0.001463940374021422</v>
       </c>
       <c r="M3" t="n">
-        <v>9.03357728952531</v>
+        <v>9.017489998390783</v>
       </c>
       <c r="N3" t="n">
-        <v>191.2415090282976</v>
+        <v>190.7517458941502</v>
       </c>
       <c r="O3" t="n">
-        <v>13.82900969080207</v>
+        <v>13.81129052240051</v>
       </c>
       <c r="P3" t="n">
-        <v>366.612601825175</v>
+        <v>366.6684011209814</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26174,28 +26260,28 @@
         <v>0.0536</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2987705849854183</v>
+        <v>0.2957765072208787</v>
       </c>
       <c r="J4" t="n">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="K4" t="n">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03506282187567389</v>
+        <v>0.03466063111902007</v>
       </c>
       <c r="M4" t="n">
-        <v>8.212839707767218</v>
+        <v>8.188660346671671</v>
       </c>
       <c r="N4" t="n">
-        <v>140.5945809514432</v>
+        <v>140.1185303303538</v>
       </c>
       <c r="O4" t="n">
-        <v>11.85725857656158</v>
+        <v>11.83716732712493</v>
       </c>
       <c r="P4" t="n">
-        <v>364.4467821228778</v>
+        <v>364.475972311124</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26252,28 +26338,28 @@
         <v>0.0552</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2713463671936429</v>
+        <v>0.2679345376620537</v>
       </c>
       <c r="J5" t="n">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="K5" t="n">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03128679677845458</v>
+        <v>0.030747348158498</v>
       </c>
       <c r="M5" t="n">
-        <v>8.056023247076919</v>
+        <v>8.037953192530139</v>
       </c>
       <c r="N5" t="n">
-        <v>128.5147546776979</v>
+        <v>128.1204467068928</v>
       </c>
       <c r="O5" t="n">
-        <v>11.33643483100829</v>
+        <v>11.3190302900422</v>
       </c>
       <c r="P5" t="n">
-        <v>366.1346486223276</v>
+        <v>366.1686189594146</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26330,28 +26416,28 @@
         <v>0.0601</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2165982224352802</v>
+        <v>0.2137032923041502</v>
       </c>
       <c r="J6" t="n">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="K6" t="n">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03313635221938405</v>
+        <v>0.03251671015322277</v>
       </c>
       <c r="M6" t="n">
-        <v>6.37782080787655</v>
+        <v>6.365672372121648</v>
       </c>
       <c r="N6" t="n">
-        <v>77.97873515110011</v>
+        <v>77.73497120297471</v>
       </c>
       <c r="O6" t="n">
-        <v>8.830556899261797</v>
+        <v>8.816743798192999</v>
       </c>
       <c r="P6" t="n">
-        <v>368.1420392184926</v>
+        <v>368.1706713327974</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26408,28 +26494,28 @@
         <v>0.057</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2164846535804346</v>
+        <v>-0.2196864881370491</v>
       </c>
       <c r="J7" t="n">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="K7" t="n">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02994598940082072</v>
+        <v>0.0309957923899371</v>
       </c>
       <c r="M7" t="n">
-        <v>6.446704585439403</v>
+        <v>6.439968921714341</v>
       </c>
       <c r="N7" t="n">
-        <v>86.12310206392728</v>
+        <v>85.94912100508354</v>
       </c>
       <c r="O7" t="n">
-        <v>9.280253340503549</v>
+        <v>9.270874878083704</v>
       </c>
       <c r="P7" t="n">
-        <v>368.9488605906</v>
+        <v>368.9807464087975</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26486,28 +26572,28 @@
         <v>0.0515</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2391359692213893</v>
+        <v>-0.237246083778769</v>
       </c>
       <c r="J8" t="n">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="K8" t="n">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03104078675945465</v>
+        <v>0.03077692767063678</v>
       </c>
       <c r="M8" t="n">
-        <v>7.192522445150588</v>
+        <v>7.178739843400804</v>
       </c>
       <c r="N8" t="n">
-        <v>101.0470099069592</v>
+        <v>100.736506951601</v>
       </c>
       <c r="O8" t="n">
-        <v>10.05221417932185</v>
+        <v>10.03675779082075</v>
       </c>
       <c r="P8" t="n">
-        <v>366.399279816218</v>
+        <v>366.3803987370256</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -26545,7 +26631,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I626"/>
+  <dimension ref="A1:I628"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52051,6 +52137,100 @@
         </is>
       </c>
     </row>
+    <row r="627">
+      <c r="A627" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:11:51+00:00</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>-36.6237081699145,174.77601783038048</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>-36.62386184699941,174.77513883640069</t>
+        </is>
+      </c>
+      <c r="D627" t="inlineStr">
+        <is>
+          <t>-36.62400797983683,174.77426993333233</t>
+        </is>
+      </c>
+      <c r="E627" t="inlineStr">
+        <is>
+          <t>-36.62432018974889,174.7734727730338</t>
+        </is>
+      </c>
+      <c r="F627" t="inlineStr">
+        <is>
+          <t>-36.62464488621392,174.77269090876194</t>
+        </is>
+      </c>
+      <c r="G627" t="inlineStr">
+        <is>
+          <t>-36.6250519712004,174.77196073103644</t>
+        </is>
+      </c>
+      <c r="H627" t="inlineStr">
+        <is>
+          <t>-36.62556963406885,174.77133887522717</t>
+        </is>
+      </c>
+      <c r="I627" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>-36.623642890043484,174.77601236089075</t>
+        </is>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>-36.62376466548366,174.77511958004342</t>
+        </is>
+      </c>
+      <c r="D628" t="inlineStr">
+        <is>
+          <t>-36.62406940753737,174.77429516745573</t>
+        </is>
+      </c>
+      <c r="E628" t="inlineStr">
+        <is>
+          <t>-36.62428030345037,174.77344848967766</t>
+        </is>
+      </c>
+      <c r="F628" t="inlineStr">
+        <is>
+          <t>-36.624661639093645,174.77270526180124</t>
+        </is>
+      </c>
+      <c r="G628" t="inlineStr">
+        <is>
+          <t>-36.62499094255448,174.77188606138722</t>
+        </is>
+      </c>
+      <c r="H628" t="inlineStr">
+        <is>
+          <t>-36.625608138484786,174.77139556028175</t>
+        </is>
+      </c>
+      <c r="I628" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0146/nzd0146.xlsx
+++ b/data/nzd0146/nzd0146.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I628"/>
+  <dimension ref="A1:I630"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19207,6 +19207,72 @@
         <v>366.14</v>
       </c>
       <c r="I628" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B629" t="n">
+        <v>408.5685714285714</v>
+      </c>
+      <c r="C629" t="n">
+        <v>377.91</v>
+      </c>
+      <c r="D629" t="n">
+        <v>374.56</v>
+      </c>
+      <c r="E629" t="n">
+        <v>367.79</v>
+      </c>
+      <c r="F629" t="n">
+        <v>366.1654545454546</v>
+      </c>
+      <c r="G629" t="n">
+        <v>355.7254545454546</v>
+      </c>
+      <c r="H629" t="n">
+        <v>355.11</v>
+      </c>
+      <c r="I629" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:12:06+00:00</t>
+        </is>
+      </c>
+      <c r="B630" t="n">
+        <v>420.4442857142857</v>
+      </c>
+      <c r="C630" t="n">
+        <v>413.64</v>
+      </c>
+      <c r="D630" t="n">
+        <v>376.64</v>
+      </c>
+      <c r="E630" t="n">
+        <v>374.1</v>
+      </c>
+      <c r="F630" t="n">
+        <v>374.110909090909</v>
+      </c>
+      <c r="G630" t="n">
+        <v>365.9109090909091</v>
+      </c>
+      <c r="H630" t="n">
+        <v>359.22</v>
+      </c>
+      <c r="I630" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -19223,7 +19289,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B670"/>
+  <dimension ref="A1:B672"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25931,6 +25997,26 @@
       </c>
       <c r="B670" t="n">
         <v>-0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B671" t="n">
+        <v>-0.74</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B672" t="n">
+        <v>-0.93</v>
       </c>
     </row>
   </sheetData>
@@ -26631,7 +26717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I628"/>
+  <dimension ref="A1:I630"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52231,6 +52317,100 @@
         </is>
       </c>
     </row>
+    <row r="629">
+      <c r="A629" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>-36.62419576504128,174.77605868402313</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>-36.62395760460435,174.7751578106657</t>
+        </is>
+      </c>
+      <c r="D629" t="inlineStr">
+        <is>
+          <t>-36.624090624903054,174.7743038834301</t>
+        </is>
+      </c>
+      <c r="E629" t="inlineStr">
+        <is>
+          <t>-36.624293491010164,174.77345651845178</t>
+        </is>
+      </c>
+      <c r="F629" t="inlineStr">
+        <is>
+          <t>-36.62462549736557,174.77267429736497</t>
+        </is>
+      </c>
+      <c r="G629" t="inlineStr">
+        <is>
+          <t>-36.62500060844069,174.77189788776138</t>
+        </is>
+      </c>
+      <c r="H629" t="inlineStr">
+        <is>
+          <t>-36.625544080594445,174.77130125621736</t>
+        </is>
+      </c>
+      <c r="I629" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:12:06+00:00</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>-36.62430254809549,174.776067631034</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>-36.62427558032737,174.77522081758812</t>
+        </is>
+      </c>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>-36.62410842011232,174.77431119360597</t>
+        </is>
+      </c>
+      <c r="E630" t="inlineStr">
+        <is>
+          <t>-36.62434454223254,174.77348759919292</t>
+        </is>
+      </c>
+      <c r="F630" t="inlineStr">
+        <is>
+          <t>-36.62468441896199,174.77272477847924</t>
+        </is>
+      </c>
+      <c r="G630" t="inlineStr">
+        <is>
+          <t>-36.62506596543162,174.77197785325612</t>
+        </is>
+      </c>
+      <c r="H630" t="inlineStr">
+        <is>
+          <t>-36.625567949862976,174.77133639579168</t>
+        </is>
+      </c>
+      <c r="I630" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0146/nzd0146.xlsx
+++ b/data/nzd0146/nzd0146.xlsx
@@ -26190,28 +26190,28 @@
         <v>0.08740000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1647765105368011</v>
+        <v>-0.1023920887245869</v>
       </c>
       <c r="J2" t="n">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="K2" t="n">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002908742970790801</v>
+        <v>0.001095816251589499</v>
       </c>
       <c r="M2" t="n">
-        <v>14.55631151156656</v>
+        <v>14.86134543756753</v>
       </c>
       <c r="N2" t="n">
-        <v>531.0031018950772</v>
+        <v>548.477073118051</v>
       </c>
       <c r="O2" t="n">
-        <v>23.04350454889788</v>
+        <v>23.4195873814645</v>
       </c>
       <c r="P2" t="n">
-        <v>356.0316413027139</v>
+        <v>355.4169590956071</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26268,28 +26268,28 @@
         <v>0.0532</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06976178983278043</v>
+        <v>0.09226532228230733</v>
       </c>
       <c r="J3" t="n">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="K3" t="n">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001463940374021422</v>
+        <v>0.002522361313629373</v>
       </c>
       <c r="M3" t="n">
-        <v>9.017489998390783</v>
+        <v>9.12303028409668</v>
       </c>
       <c r="N3" t="n">
-        <v>190.7517458941502</v>
+        <v>194.4235624535045</v>
       </c>
       <c r="O3" t="n">
-        <v>13.81129052240051</v>
+        <v>13.94358499287413</v>
       </c>
       <c r="P3" t="n">
-        <v>366.6684011209814</v>
+        <v>366.4490292519098</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26346,28 +26346,28 @@
         <v>0.0536</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2957765072208787</v>
+        <v>0.2984963670097151</v>
       </c>
       <c r="J4" t="n">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="K4" t="n">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03466063111902007</v>
+        <v>0.03557039421247099</v>
       </c>
       <c r="M4" t="n">
-        <v>8.188660346671671</v>
+        <v>8.173538567508205</v>
       </c>
       <c r="N4" t="n">
-        <v>140.1185303303538</v>
+        <v>139.5880244512015</v>
       </c>
       <c r="O4" t="n">
-        <v>11.83716732712493</v>
+        <v>11.8147375955288</v>
       </c>
       <c r="P4" t="n">
-        <v>364.475972311124</v>
+        <v>364.4493360935758</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26424,28 +26424,28 @@
         <v>0.0552</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2679345376620537</v>
+        <v>0.2663015712846344</v>
       </c>
       <c r="J5" t="n">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="K5" t="n">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="L5" t="n">
-        <v>0.030747348158498</v>
+        <v>0.03061202535153396</v>
       </c>
       <c r="M5" t="n">
-        <v>8.037953192530139</v>
+        <v>8.01701280318562</v>
       </c>
       <c r="N5" t="n">
-        <v>128.1204467068928</v>
+        <v>127.682762573357</v>
       </c>
       <c r="O5" t="n">
-        <v>11.3190302900422</v>
+        <v>11.29967975534515</v>
       </c>
       <c r="P5" t="n">
-        <v>366.1686189594146</v>
+        <v>366.1848846396412</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26502,28 +26502,28 @@
         <v>0.0601</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2137032923041502</v>
+        <v>0.2110272093915513</v>
       </c>
       <c r="J6" t="n">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="K6" t="n">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03251671015322277</v>
+        <v>0.03194001343062769</v>
       </c>
       <c r="M6" t="n">
-        <v>6.365672372121648</v>
+        <v>6.354201187568767</v>
       </c>
       <c r="N6" t="n">
-        <v>77.73497120297471</v>
+        <v>77.54230781397789</v>
       </c>
       <c r="O6" t="n">
-        <v>8.816743798192999</v>
+        <v>8.805811025338773</v>
       </c>
       <c r="P6" t="n">
-        <v>368.1706713327974</v>
+        <v>368.1971942058156</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26580,28 +26580,28 @@
         <v>0.057</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2196864881370491</v>
+        <v>-0.2214558690969376</v>
       </c>
       <c r="J7" t="n">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="K7" t="n">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0309957923899371</v>
+        <v>0.03168176638215692</v>
       </c>
       <c r="M7" t="n">
-        <v>6.439968921714341</v>
+        <v>6.434758623762672</v>
       </c>
       <c r="N7" t="n">
-        <v>85.94912100508354</v>
+        <v>85.7405487684954</v>
       </c>
       <c r="O7" t="n">
-        <v>9.270874878083704</v>
+        <v>9.259619256130103</v>
       </c>
       <c r="P7" t="n">
-        <v>368.9807464087975</v>
+        <v>368.9983469758939</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26658,28 +26658,28 @@
         <v>0.0515</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.237246083778769</v>
+        <v>-0.239379310678727</v>
       </c>
       <c r="J8" t="n">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="K8" t="n">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03077692767063678</v>
+        <v>0.03153453110849613</v>
       </c>
       <c r="M8" t="n">
-        <v>7.178739843400804</v>
+        <v>7.162378610252524</v>
       </c>
       <c r="N8" t="n">
-        <v>100.736506951601</v>
+        <v>100.4108485487529</v>
       </c>
       <c r="O8" t="n">
-        <v>10.03675779082075</v>
+        <v>10.02052137110405</v>
       </c>
       <c r="P8" t="n">
-        <v>366.3803987370256</v>
+        <v>366.40171177207</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">

--- a/data/nzd0146/nzd0146.xlsx
+++ b/data/nzd0146/nzd0146.xlsx
@@ -26181,13 +26181,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0618</v>
+        <v>0.0198</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08740000000000001</v>
+        <v>0.0256</v>
       </c>
       <c r="I2" t="n">
         <v>-0.102391856707078</v>
@@ -26259,13 +26259,13 @@
         <v>0.1666435128196762</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05</v>
+        <v>0.035</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0479</v>
+        <v>0.0294</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0532</v>
+        <v>0.0379</v>
       </c>
       <c r="I3" t="n">
         <v>0.09226532228230742</v>
@@ -26337,13 +26337,13 @@
         <v>0.3334554896861217</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05</v>
+        <v>0.035</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0446</v>
+        <v>0.0307</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0536</v>
+        <v>0.0366</v>
       </c>
       <c r="I4" t="n">
         <v>0.298496367009715</v>
@@ -26415,13 +26415,13 @@
         <v>0.5000855816135186</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0474</v>
+        <v>0.035</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0552</v>
+        <v>0.0425</v>
       </c>
       <c r="I5" t="n">
         <v>0.2663015712846344</v>
@@ -26493,13 +26493,13 @@
         <v>0.6664371272456719</v>
       </c>
       <c r="F6" t="n">
-        <v>0.055</v>
+        <v>0.045</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0533</v>
+        <v>0.0428</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0601</v>
+        <v>0.0517</v>
       </c>
       <c r="I6" t="n">
         <v>0.2110688978217702</v>
@@ -26571,13 +26571,13 @@
         <v>0.8332282735535904</v>
       </c>
       <c r="F7" t="n">
-        <v>0.055</v>
+        <v>0.045</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0496</v>
+        <v>0.0439</v>
       </c>
       <c r="H7" t="n">
-        <v>0.057</v>
+        <v>0.0479</v>
       </c>
       <c r="I7" t="n">
         <v>-0.2214173769695036</v>
@@ -26649,13 +26649,13 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0483</v>
+        <v>0.0397</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0515</v>
+        <v>0.044</v>
       </c>
       <c r="I8" t="n">
         <v>-0.239379310678727</v>
